--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533DD28B-46CF-4184-9463-7B092AB198B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906B0DB8-3EF4-4BC7-A857-274DC132853B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,27 +36,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Heigth 150</t>
   </si>
   <si>
-    <t>Heigth 150: 50 p /lbl-&gt; 3 labels; (190-160)/(3+1)= 7,5; rounddown=7</t>
-  </si>
-  <si>
-    <t>Buffer 10%</t>
-  </si>
-  <si>
     <t>Starting from the center of the range!</t>
   </si>
   <si>
-    <t>Height 150: -&gt; Net height 80% -&gt; 120; 50p/lbl-&gt; 2 lbls;(190-160)/(2+1)= 105; rounddown=10</t>
+    <t>NetRange</t>
+  </si>
+  <si>
+    <t>Buffer 5%</t>
+  </si>
+  <si>
+    <t>Height 150: -&gt; Net height 80% -&gt; 120; 30p/lbl-&gt; 4 lbls; NetRange=30*5%=1,5;MinNet = 160 +1,5= 161,5; MaxNet=190-1,5=188,5</t>
+  </si>
+  <si>
+    <t>LabelStep = (188,5 - 161,5)/4 =</t>
+  </si>
+  <si>
+    <t>First 161,5 + step/2</t>
+  </si>
+  <si>
+    <t>Next  first + step</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,9 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,216 +396,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O38"/>
+  <dimension ref="A2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O3" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>189</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="C7" s="2">
+        <v>188.5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>187</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>186</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>185</v>
       </c>
-      <c r="O9">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <v>185.125</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>184</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>182</v>
       </c>
-      <c r="C12">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>181</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>179</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>178</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
+        <v>178.375</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>177</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>175</v>
       </c>
-      <c r="C19">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>174</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>173</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>172</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>171</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3">
+        <v>171.625</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>169</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>168</v>
       </c>
-      <c r="C26">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>165</v>
       </c>
-      <c r="O29">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>164</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="C31" s="2"/>
+      <c r="D31">
+        <v>164.875</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>162</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="C34" s="2">
+        <v>161.5</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="L39" s="3">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906B0DB8-3EF4-4BC7-A857-274DC132853B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B749155-FFE4-4974-91AC-690F3ECF8F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Heigth 150</t>
   </si>
@@ -50,28 +50,97 @@
     <t>Buffer 5%</t>
   </si>
   <si>
-    <t>Height 150: -&gt; Net height 80% -&gt; 120; 30p/lbl-&gt; 4 lbls; NetRange=30*5%=1,5;MinNet = 160 +1,5= 161,5; MaxNet=190-1,5=188,5</t>
-  </si>
-  <si>
     <t>LabelStep = (188,5 - 161,5)/4 =</t>
   </si>
   <si>
-    <t>First 161,5 + step/2</t>
-  </si>
-  <si>
-    <t>Next  first + step</t>
-  </si>
-  <si>
     <t>...</t>
+  </si>
+  <si>
+    <t>LastTwoDigits 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First 161,5 + step/2; </t>
+  </si>
+  <si>
+    <t>Round MidpointRounding.AwayFromZero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next  first + step; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step/2:  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Height 150: -&gt; Net height 80% -&gt; 120; 30p/lbl-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 lbls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; NetRange=30*5%=1,5;MinNet = 160 +1,5= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>161,5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; MaxNet=190-1,5=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>188,5</t>
+    </r>
+  </si>
+  <si>
+    <t>Step and First</t>
+  </si>
+  <si>
+    <t>LastTwoDigits 50, 25,20,10,5,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,8 +183,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,30 +477,53 @@
     <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="2">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -441,9 +533,11 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>189</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C6" s="2">
+        <v>188.5</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -451,11 +545,9 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>188</v>
-      </c>
-      <c r="C7" s="2">
-        <v>188.5</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -463,39 +555,40 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>186</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9">
+        <v>185.13</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="3">
-        <v>185.125</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -505,7 +598,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -515,7 +608,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -525,7 +618,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -535,40 +628,41 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>179</v>
+      </c>
       <c r="G15" s="2"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16">
+        <v>178.38</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="3">
-        <v>178.375</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -578,9 +672,8 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>176</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>175</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -588,8 +681,9 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>175</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -597,7 +691,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -607,39 +701,40 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>172</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23">
+        <v>171.63</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="3">
-        <v>171.625</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -649,7 +744,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -659,7 +754,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -669,7 +764,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -679,106 +774,107 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2">
+        <v>165</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30">
+        <v>164.88</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31">
-        <v>164.875</v>
-      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>163</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+        <v>162</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>162</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C33" s="2">
+        <v>161.5</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>161</v>
-      </c>
-      <c r="C34" s="2">
-        <v>161.5</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>160</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
-        <v>1</v>
+      <c r="C37" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>4</v>
       </c>
+      <c r="G38" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>3.38</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-      <c r="L39" s="3">
-        <v>6.75</v>
+      <c r="F39" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B749155-FFE4-4974-91AC-690F3ECF8F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C2B806-35FA-4692-B1E5-204EAC98D781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Heigth 150</t>
   </si>
@@ -131,16 +131,13 @@
   <si>
     <t>Step and First</t>
   </si>
-  <si>
-    <t>LastTwoDigits 50, 25,20,10,5,2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -183,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -200,6 +197,98 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>816429</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Speech Bubble: Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3102F1-9DEF-E9CB-DD0B-09B1AE163814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5040086" y="1905000"/>
+          <a:ext cx="3929743" cy="620486"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56644"/>
+            <a:gd name="adj2" fmla="val 60746"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Uneven</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>steps!</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>!</a:t>
+          </a:r>
+          <a:endParaRPr lang="LID4096" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,7 +557,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +567,7 @@
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
     <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -487,18 +576,33 @@
     <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>50</v>
+      </c>
+      <c r="H1">
+        <v>25</v>
+      </c>
+      <c r="I1">
+        <v>20</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -506,12 +610,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>190</v>
       </c>
@@ -521,7 +625,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>189</v>
       </c>
@@ -531,7 +635,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>188</v>
       </c>
@@ -543,7 +647,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>187</v>
       </c>
@@ -553,7 +657,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>186</v>
       </c>
@@ -565,7 +669,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>185</v>
       </c>
@@ -574,9 +678,14 @@
         <v>185.13</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="2">
+        <v>185.5</v>
+      </c>
+      <c r="H9">
+        <v>185.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>184</v>
       </c>
@@ -586,7 +695,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>183</v>
       </c>
@@ -596,7 +705,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>182</v>
       </c>
@@ -606,7 +715,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>181</v>
       </c>
@@ -616,7 +725,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>180</v>
       </c>
@@ -626,7 +735,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>179</v>
       </c>
@@ -639,7 +748,7 @@
       <c r="G15" s="2"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>178</v>
       </c>
@@ -648,9 +757,14 @@
         <v>178.38</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="2">
+        <v>178.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>177</v>
       </c>
@@ -660,7 +774,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>176</v>
       </c>
@@ -670,7 +784,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>175</v>
       </c>
@@ -679,7 +793,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>174</v>
       </c>
@@ -689,7 +803,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>173</v>
       </c>
@@ -699,7 +813,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>172</v>
       </c>
@@ -709,9 +823,11 @@
       <c r="F22" s="2">
         <v>172</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>171</v>
       </c>
@@ -721,8 +837,11 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>171.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>170</v>
       </c>
@@ -732,7 +851,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>169</v>
       </c>
@@ -742,7 +861,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>168</v>
       </c>
@@ -752,7 +871,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>167</v>
       </c>
@@ -762,7 +881,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>166</v>
       </c>
@@ -772,7 +891,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>165</v>
       </c>
@@ -782,9 +901,14 @@
       <c r="F29" s="2">
         <v>165</v>
       </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="2">
+        <v>165</v>
+      </c>
+      <c r="H29">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>164</v>
       </c>
@@ -795,7 +919,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>163</v>
       </c>
@@ -805,7 +929,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>162</v>
       </c>
@@ -880,5 +1004,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C2B806-35FA-4692-B1E5-204EAC98D781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958CF406-CF00-4FF7-A77C-2280B2DDDF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LTD 00" sheetId="1" r:id="rId1"/>
+    <sheet name="LTD 50" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Heigth 150</t>
   </si>
@@ -130,6 +131,70 @@
   </si>
   <si>
     <t>Step and First</t>
+  </si>
+  <si>
+    <t>LTD 50</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Height 150: -&gt; Net height 80% -&gt; 120; 30p/lbl-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 lbls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Range=15; NetRange=15*5%=0,75;MinNet = 175 +0,75= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>175,75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; MaxNet=190-0,75=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>189,25</t>
+    </r>
+  </si>
+  <si>
+    <t>LabelStep = (189,25 - 175,75)/4 =</t>
   </si>
 </sst>
 </file>
@@ -197,98 +262,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>65315</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Speech Bubble: Oval 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3102F1-9DEF-E9CB-DD0B-09B1AE163814}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5040086" y="1905000"/>
-          <a:ext cx="3929743" cy="620486"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -56644"/>
-            <a:gd name="adj2" fmla="val 60746"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Uneven</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>steps!</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>!</a:t>
-          </a:r>
-          <a:endParaRPr lang="LID4096" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,12 +651,7 @@
         <v>185.13</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>185.5</v>
-      </c>
-      <c r="H9">
-        <v>185.25</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -757,14 +725,10 @@
         <v>178.38</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>178.5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>178.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>177</v>
       </c>
@@ -774,7 +738,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>176</v>
       </c>
@@ -784,7 +748,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>175</v>
       </c>
@@ -793,7 +757,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>174</v>
       </c>
@@ -803,7 +767,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>173</v>
       </c>
@@ -813,7 +777,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>172</v>
       </c>
@@ -823,11 +787,9 @@
       <c r="F22" s="2">
         <v>172</v>
       </c>
-      <c r="G22" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>171</v>
       </c>
@@ -837,11 +799,8 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23">
-        <v>171.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>170</v>
       </c>
@@ -851,7 +810,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>169</v>
       </c>
@@ -861,7 +820,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>168</v>
       </c>
@@ -871,7 +830,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>167</v>
       </c>
@@ -881,7 +840,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>166</v>
       </c>
@@ -891,7 +850,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>165</v>
       </c>
@@ -901,14 +860,9 @@
       <c r="F29" s="2">
         <v>165</v>
       </c>
-      <c r="G29" s="2">
-        <v>165</v>
-      </c>
-      <c r="H29">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>164</v>
       </c>
@@ -919,7 +873,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>163</v>
       </c>
@@ -929,7 +883,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>162</v>
       </c>
@@ -1004,6 +958,388 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6547C17-3FEC-4EC1-99CF-8D38DDBE3FB9}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>20</v>
+      </c>
+      <c r="I1">
+        <v>10</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>189.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>189.25</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>189</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>188.5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>188</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>187.57999999999998</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>187</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>186.5</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>186</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>185.5</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>185</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>184.5</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="2">
+        <v>184.5</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>184</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>184.2</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>183.5</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>183</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>182.5</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>182</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>181.5</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>181</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>180.5</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>180.82</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>180</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>179.5</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>179</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>178.5</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>178</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>177.5</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2">
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>177</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>177.44</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>176.5</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>176</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>175.5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>175.75</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>175</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="4">
+        <v>3.38</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958CF406-CF00-4FF7-A77C-2280B2DDDF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179A623-6236-4F77-AECE-2DD65AE4091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTD 00" sheetId="1" r:id="rId1"/>
     <sheet name="LTD 50" sheetId="2" r:id="rId2"/>
+    <sheet name="LTD 25" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Heigth 150</t>
   </si>
@@ -196,13 +197,78 @@
   <si>
     <t>LabelStep = (189,25 - 175,75)/4 =</t>
   </si>
+  <si>
+    <t>LTD 25</t>
+  </si>
+  <si>
+    <t>LabelStep = (189,625 - 182,875)/4 =</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Height 150: -&gt; Net height 80% -&gt; 120; 30p/lbl-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 lbls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Range=7,5; NetRange=7,5*5%=0,375;MinNet = 182,5 +0,375=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>182,875</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; MaxNet=190-0,375=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>189,625</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -241,12 +307,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6547C17-3FEC-4EC1-99CF-8D38DDBE3FB9}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1342,4 +1409,368 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4131A0AC-2FE7-4564-9950-BEC12765E709}">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1">
+        <v>20</v>
+      </c>
+      <c r="H1">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>189.75</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>189.5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>189.25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>189</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>188.75</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>188.5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10">
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>188.25</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>188.40629999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>188</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>187.75</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>187.25</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>187</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>186.75</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17">
+        <v>186.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>186.5</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>186.71879999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>186.25</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>186</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>185.75</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>185.5</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>185.25</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2">
+        <v>185.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>185</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>185.03129999999999</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>184.75</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>184.5</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>184.25</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>184</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>183.75</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>183.5</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2">
+        <v>183.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>183.25</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>183.34379999999999</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>183</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>182.75</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>182.5</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1.6875</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179A623-6236-4F77-AECE-2DD65AE4091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA18CBA-C49C-42E4-956E-8E5E941849DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTD 00" sheetId="1" r:id="rId1"/>
     <sheet name="LTD 50" sheetId="2" r:id="rId2"/>
     <sheet name="LTD 25" sheetId="3" r:id="rId3"/>
+    <sheet name="LTD 20" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Heigth 150</t>
   </si>
@@ -260,6 +261,70 @@
       </rPr>
       <t>189,625</t>
     </r>
+  </si>
+  <si>
+    <t>LTD 20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Height 150: -&gt; Net height 80% -&gt; 120; 30p/lbl-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 lbls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Range=; NetRange=6*5%=0,3;MinNet = 184 +0,3=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>184,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; MaxNet=190-0,3=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>189,7</t>
+    </r>
+  </si>
+  <si>
+    <t>LabelStep = (189,7 - 184,3)/4 =</t>
   </si>
 </sst>
 </file>
@@ -1415,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4131A0AC-2FE7-4564-9950-BEC12765E709}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1773,4 +1838,365 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312C4062-7599-417D-AA51-6C0E342B1516}">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>189.8</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>189.6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>189.4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>189.2</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>189</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>188.8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10">
+        <v>188.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>188.6</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>188.72499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>188.4</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>188.2</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>188</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>187.8</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>187.6</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>187.4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>187.2</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>187.375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>187</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>186.8</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>186.6</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>186.4</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>186.2</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2">
+        <v>186.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>186</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>186.02500000000001</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>185.8</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>185.6</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>185.4</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>185.2</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>185</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>184.8</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2">
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>184.6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>184.67500000000001</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>184.4</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>184.2</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>184</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA18CBA-C49C-42E4-956E-8E5E941849DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD1D396-16A7-45B8-B4EC-394291BCCAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTD 00" sheetId="1" r:id="rId1"/>
     <sheet name="LTD 50" sheetId="2" r:id="rId2"/>
     <sheet name="LTD 25" sheetId="3" r:id="rId3"/>
     <sheet name="LTD 20" sheetId="4" r:id="rId4"/>
+    <sheet name="LTD 10)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Heigth 150</t>
   </si>
@@ -326,14 +327,79 @@
   <si>
     <t>LabelStep = (189,7 - 184,3)/4 =</t>
   </si>
+  <si>
+    <t>LTD 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Height 150: -&gt; Net height 80% -&gt; 120; 30p/lbl-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 lbls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Range=; NetRange=3*5%=0,15;MinNet = 187 +0,15=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>187,15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; MaxNet=190-0,15=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>189,85</t>
+    </r>
+  </si>
+  <si>
+    <t>LabelStep = (189,85 - 187,15)/4 =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -372,13 +438,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1844,7 +1912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312C4062-7599-417D-AA51-6C0E342B1516}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -2199,4 +2267,362 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D2961E-8EEA-4F65-97E8-6695BEDA0F81}">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>189.9</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>189.8</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>189.7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>189.6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>189.5</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>189.4</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10">
+        <v>189.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>189.3</v>
+      </c>
+      <c r="C11" s="2">
+        <f>C18+G38</f>
+        <v>189.36250000000004</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>189.2</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>189.1</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>189</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>188.9</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>188.8</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>188.7</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17">
+        <v>188.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>188.6</v>
+      </c>
+      <c r="C18" s="2">
+        <f>C24+G38</f>
+        <v>188.68750000000003</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>188.5</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>188.4</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>188.3</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>188.2</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>188.1</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2">
+        <v>188.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>188</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C31+G38</f>
+        <v>188.01250000000002</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>187.9</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>187.8</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>187.7</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>187.6</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>187.4</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2">
+        <v>178.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>187.3</v>
+      </c>
+      <c r="C31" s="2">
+        <f>A34+J38</f>
+        <v>187.33750000000001</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>187.2</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>187.1</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>187</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD1D396-16A7-45B8-B4EC-394291BCCAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79035AF-BE99-4CC3-B10C-2CAAAEDB516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTD 00" sheetId="1" r:id="rId1"/>
     <sheet name="LTD 50" sheetId="2" r:id="rId2"/>
     <sheet name="LTD 25" sheetId="3" r:id="rId3"/>
     <sheet name="LTD 20" sheetId="4" r:id="rId4"/>
-    <sheet name="LTD 10)" sheetId="5" r:id="rId5"/>
+    <sheet name="LTD 10" sheetId="5" r:id="rId5"/>
+    <sheet name="LTD 5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>Heigth 150</t>
   </si>
@@ -331,6 +332,12 @@
     <t>LTD 10</t>
   </si>
   <si>
+    <t>LabelStep = (189,85 - 187,15)/4 =</t>
+  </si>
+  <si>
+    <t>LTD 5</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Height 150: -&gt; Net height 80% -&gt; 120; 30p/lbl-&gt; </t>
     </r>
@@ -353,7 +360,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>; Range=; NetRange=3*5%=0,15;MinNet = 187 +0,15=</t>
+      <t>; Range=3; NetRange=3*5%=0,15;MinNet = 187 +0,15=</t>
     </r>
     <r>
       <rPr>
@@ -389,17 +396,76 @@
     </r>
   </si>
   <si>
-    <t>LabelStep = (189,85 - 187,15)/4 =</t>
+    <r>
+      <t xml:space="preserve">Height 150: -&gt; Net height 80% -&gt; 120; 30p/lbl-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 lbls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Range=1,5; NetRange=1,5*5%=0,075;MinNet = 188,5 +0,075=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>188,575</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; MaxNet=190-0,075=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>189,925</t>
+    </r>
+  </si>
+  <si>
+    <t>LabelStep = (189,925 - 188,575)/4 =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -438,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -447,6 +513,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2273,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D2961E-8EEA-4F65-97E8-6695BEDA0F81}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2586,12 +2653,12 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G38" s="6">
         <v>0.67500000000000004</v>
@@ -2601,6 +2668,357 @@
       </c>
       <c r="J38" s="7">
         <v>0.33750000000000002</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2587E-B418-4E11-AA38-BB90D089B7C4}">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>189.95</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>189.9</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>189.85</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>189.8</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>189.75</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>189.7</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10">
+        <v>189.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>189.65</v>
+      </c>
+      <c r="C11" s="2">
+        <f>C18+G38</f>
+        <v>189.68125000000001</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>189.6</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>189.55</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>189.5</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>189.45</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>189.4</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>189.35</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17">
+        <v>189.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>189.3</v>
+      </c>
+      <c r="C18" s="2">
+        <f>C24+G38</f>
+        <v>189.34375</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>189.25</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>189.2</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>189.15</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>189.1</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>189.05</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2">
+        <v>189.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>189</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C31+G38</f>
+        <v>189.00624999999999</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>188.95</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>188.9</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>188.85</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>188.8</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>188.75</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>188.7</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2">
+        <v>188.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>188.65</v>
+      </c>
+      <c r="C31" s="2">
+        <f>A34+J38</f>
+        <v>188.66874999999999</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>188.6</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>188.55</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>188.5</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.16875000000000001</v>
       </c>
       <c r="L38" t="s">
         <v>8</v>

--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79035AF-BE99-4CC3-B10C-2CAAAEDB516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41C9946-5D7D-4122-BB5B-8E21FD9BFA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTD 00" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="LTD 25" sheetId="3" r:id="rId3"/>
     <sheet name="LTD 20" sheetId="4" r:id="rId4"/>
     <sheet name="LTD 10" sheetId="5" r:id="rId5"/>
-    <sheet name="LTD 5" sheetId="6" r:id="rId6"/>
+    <sheet name="LTD 05" sheetId="6" r:id="rId6"/>
+    <sheet name="LTD 02" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
   <si>
     <t>Heigth 150</t>
   </si>
@@ -335,9 +336,6 @@
     <t>LabelStep = (189,85 - 187,15)/4 =</t>
   </si>
   <si>
-    <t>LTD 5</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Height 150: -&gt; Net height 80% -&gt; 120; 30p/lbl-&gt; </t>
     </r>
@@ -455,6 +453,73 @@
   </si>
   <si>
     <t>LabelStep = (189,925 - 188,575)/4 =</t>
+  </si>
+  <si>
+    <t>LTD 05</t>
+  </si>
+  <si>
+    <t>LTD 02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Height 150: -&gt; Net height 80% -&gt; 120; 30p/lbl-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 lbls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Range=0,6; NetRange=1,5*5%=0,03;MinNet = 189,4 +0,03=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>189,43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; MaxNet=190-0,03=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>189,97</t>
+    </r>
+  </si>
+  <si>
+    <t>LabelStep = (189,97 - 189,43)/4 =</t>
   </si>
 </sst>
 </file>
@@ -2653,7 +2718,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2698,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2587E-B418-4E11-AA38-BB90D089B7C4}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2724,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -3004,12 +3069,12 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G38" s="7">
         <v>0.33750000000000002</v>
@@ -3019,6 +3084,353 @@
       </c>
       <c r="J38" s="8">
         <v>0.16875000000000001</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C38B04-6B25-4A52-85CB-38B46253BDB5}">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>189.98</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>189.96</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>189.94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>189.92</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>189.9</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>189.88</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10">
+        <v>189.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>189.86</v>
+      </c>
+      <c r="C11" s="2">
+        <f>C17+G38</f>
+        <v>189.87249999999997</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>189.84</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>189.82</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>189.8</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>189.78</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>189.76</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>189.74</v>
+      </c>
+      <c r="C17" s="2">
+        <f>C24+G38</f>
+        <v>189.73749999999998</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="F17">
+        <v>189.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>189.72</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>189.7</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>189.68</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>189.66</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>189.64</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>189.62</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>189.6</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C31+G38</f>
+        <v>189.60249999999999</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="F24" s="2">
+        <v>189.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>189.58</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>189.56</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>189.54</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>189.52</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>189.5</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>189.48</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2">
+        <v>189.48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>189.46</v>
+      </c>
+      <c r="C31" s="2">
+        <f>A34+J38</f>
+        <v>189.4675</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>189.44</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>189.42</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>189.4</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="8">
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="L38" t="s">
         <v>8</v>

--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41C9946-5D7D-4122-BB5B-8E21FD9BFA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD68084-A8FC-40BC-BDB6-FD757EFBAFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTD 00" sheetId="1" r:id="rId1"/>
@@ -2405,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D2961E-8EEA-4F65-97E8-6695BEDA0F81}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2669,7 +2669,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="F30" s="2">
-        <v>178.4</v>
+        <v>187.4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3114,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C38B04-6B25-4A52-85CB-38B46253BDB5}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD68084-A8FC-40BC-BDB6-FD757EFBAFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E2BD5-A45C-44B1-A05B-3F88607ABA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTD 00" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="LTD 10" sheetId="5" r:id="rId5"/>
     <sheet name="LTD 05" sheetId="6" r:id="rId6"/>
     <sheet name="LTD 02" sheetId="7" r:id="rId7"/>
+    <sheet name="SampleFromCode" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Heigth 150</t>
   </si>
@@ -520,6 +521,79 @@
   </si>
   <si>
     <t>LabelStep = (189,97 - 189,43)/4 =</t>
+  </si>
+  <si>
+    <t>numberOfLbls 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min </t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>LabelStep = (391,435 - 390,265)/8 =</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8 lbls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Range=0,6; NetRange=1,3*5%=0,065;MinNet = 390,2 +0,065=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>390,265</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; MaxNet=391,5-0,065=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>391,435</t>
+    </r>
+  </si>
+  <si>
+    <t>step/2</t>
   </si>
 </sst>
 </file>
@@ -2405,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D2961E-8EEA-4F65-97E8-6695BEDA0F81}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3115,7 +3189,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3455,4 +3529,767 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E00779-A7A8-475A-ACFE-7A59F9649B0E}">
+  <dimension ref="A1:M136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>391.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.14625000000000199</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1">
+        <f>H2/2</f>
+        <v>7.3125000000000995E-2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>390.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <f>B2-B3</f>
+        <v>1.3000000000000114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>391.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>391.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>391.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>391.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>391.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>391.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>391.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>391.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>391.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>391.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>391.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>391.39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>391.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>391.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>391.36</v>
+      </c>
+      <c r="C20">
+        <f>C35+H2</f>
+        <v>391.36375000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>391.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>391.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>391.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>391.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>391.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>391.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>391.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>391.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>391.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>391.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>391.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>391.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>391.23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>391.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>391.21</v>
+      </c>
+      <c r="C35">
+        <f>C49+H2</f>
+        <v>391.21750000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>391.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>391.19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>391.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>391.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>391.16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>391.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>391.14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>391.13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>391.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>391.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>391.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>391.09</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>391.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>391.07</v>
+      </c>
+      <c r="C49">
+        <f>C64+H2</f>
+        <v>391.07125000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>391.06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>391.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>391.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>391.03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>391.02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>391.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>390.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>390.98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>390.97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>390.96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>390.95000000000101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>390.94000000000102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>390.93000000000097</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>390.92000000000098</v>
+      </c>
+      <c r="C64">
+        <f>C79+H2</f>
+        <v>390.92500000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>390.91000000000099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>390.900000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>390.89000000000101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>390.88000000000102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>390.87000000000103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>390.86000000000098</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>390.85000000000099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>390.840000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>390.83000000000101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>390.82000000000102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>390.81000000000103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>390.80000000000098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>390.79000000000099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>390.780000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>390.770000000001</v>
+      </c>
+      <c r="C79">
+        <f>C93+H2</f>
+        <v>390.77875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>390.76000000000101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>390.75000000000102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>390.74000000000098</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>390.73000000000098</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>390.72000000000099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>390.710000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>390.70000000000101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>390.69000000000102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>390.68000000000097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>390.67000000000098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>390.66000000000099</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>390.650000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>390.64000000000101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>390.63000000000102</v>
+      </c>
+      <c r="C93">
+        <f>C108+H2</f>
+        <v>390.63249999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>390.62000000000103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>390.61000000000098</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>390.60000000000099</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>390.590000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>390.58000000000101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>390.57000000000102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>390.56000000000103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>390.55000000000098</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>390.54000000000099</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>390.530000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>390.520000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>390.51000000000101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>390.50000000000102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>390.49000000000098</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>390.48000000000098</v>
+      </c>
+      <c r="C108">
+        <f>C122+H2</f>
+        <v>390.48624999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>390.47000000000099</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>390.460000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>390.45000000000101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>390.44000000000102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>390.43000000000097</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>390.42000000000098</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>390.41000000000099</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>390.400000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>390.39000000000101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>390.38000000000102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>390.37000000000103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>390.36000000000098</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>390.35000000000099</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>390.340000000001</v>
+      </c>
+      <c r="C122">
+        <v>390.34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>390.33000000000101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>390.32000000000102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>390.31000000000103</v>
+      </c>
+      <c r="H125">
+        <v>390.26499999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>390.30000000000098</v>
+      </c>
+      <c r="H126">
+        <f>H125+K2</f>
+        <v>390.33812499999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>390.29000000000099</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>390.280000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>390.270000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>390.26000000000101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>390.25000000000102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>390.24000000000098</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>390.23000000000098</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>390.22000000000099</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>390.210000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>390.20000000000101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E2BD5-A45C-44B1-A05B-3F88607ABA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B28AABB-6440-4CD4-B829-69A74F4BEC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTD 00" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -653,6 +653,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3537,12 +3538,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3595,6 +3597,11 @@
         <v>1.3000000000000114</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E5" s="9">
+        <v>44963</v>
+      </c>
+    </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>391.5</v>
@@ -3650,22 +3657,22 @@
         <v>391.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>391.39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>391.38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>391.37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>391.36</v>
       </c>
@@ -3674,77 +3681,80 @@
         <v>391.36375000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>391.35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>391.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>391.34</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>391.33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>391.32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>391.31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>391.3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>391.29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>391.28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>391.27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>391.26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>391.25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>391.24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>391.23</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>391.22</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>391.21</v>
       </c>
@@ -3753,72 +3763,75 @@
         <v>391.21750000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>391.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>391.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>391.19</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>391.18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>391.17</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>391.16</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>391.15</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>391.14</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>391.13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>391.12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>391.11</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>391.1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>391.09</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>391.08</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>391.07</v>
       </c>
@@ -3827,77 +3840,80 @@
         <v>391.07125000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>391.06</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>391.05</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>391.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>391.04</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>391.03</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>391.02</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>391.01</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>390.99</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>390.98</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>390.97</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>390.96</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>390.95000000000101</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>390.94000000000102</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>390.93000000000097</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>390.92000000000098</v>
       </c>
@@ -3906,77 +3922,80 @@
         <v>390.92500000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>390.91000000000099</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>390.900000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>390.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>390.89000000000101</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>390.88000000000102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>390.87000000000103</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>390.86000000000098</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>390.85000000000099</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>390.840000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>390.83000000000101</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>390.82000000000102</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>390.81000000000103</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>390.80000000000098</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>390.79000000000099</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>390.780000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>390.770000000001</v>
       </c>
@@ -3985,72 +4004,75 @@
         <v>390.77875</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>390.76000000000101</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>390.75000000000102</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>390.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>390.74000000000098</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>390.73000000000098</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>390.72000000000099</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>390.710000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>390.70000000000101</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>390.69000000000102</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>390.68000000000097</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>390.67000000000098</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>390.66000000000099</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>390.650000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>390.64000000000101</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>390.63000000000102</v>
       </c>
@@ -4059,77 +4081,80 @@
         <v>390.63249999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>390.62000000000103</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>390.61000000000098</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>390.60000000000099</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>390.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>390.590000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>390.58000000000101</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>390.57000000000102</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>390.56000000000103</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>390.55000000000098</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>390.54000000000099</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>390.530000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>390.520000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>390.51000000000101</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>390.50000000000102</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>390.49000000000098</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>390.48000000000098</v>
       </c>
@@ -4138,72 +4163,75 @@
         <v>390.48624999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>390.47000000000099</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>390.460000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>390.45000000000101</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>390.45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>390.44000000000102</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>390.43000000000097</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>390.42000000000098</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>390.41000000000099</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>390.400000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>390.39000000000101</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>390.38000000000102</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>390.37000000000103</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>390.36000000000098</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>390.35000000000099</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>390.340000000001</v>
       </c>
@@ -4211,39 +4239,35 @@
         <v>390.34</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>390.33000000000101</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>390.32000000000102</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>390.31000000000103</v>
       </c>
-      <c r="H125">
-        <v>390.26499999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>390.30000000000098</v>
       </c>
-      <c r="H126">
-        <f>H125+K2</f>
-        <v>390.33812499999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <v>390.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>390.29000000000099</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>390.280000000001</v>
       </c>

--- a/SsbHedger/Documentation/BarPrices.xlsx
+++ b/SsbHedger/Documentation/BarPrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SsbHedger\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B28AABB-6440-4CD4-B829-69A74F4BEC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFB38D4-6A91-410B-884B-83C6EE766A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTD 00" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="LTD 05" sheetId="6" r:id="rId6"/>
     <sheet name="LTD 02" sheetId="7" r:id="rId7"/>
     <sheet name="SampleFromCode" sheetId="8" r:id="rId8"/>
+    <sheet name="ReturnListOfPriceAndMargin" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="54">
   <si>
     <t>Heigth 150</t>
   </si>
@@ -595,6 +596,54 @@
   <si>
     <t>step/2</t>
   </si>
+  <si>
+    <t>AxisHeight</t>
+  </si>
+  <si>
+    <t>MinHeightLabel</t>
+  </si>
+  <si>
+    <t>ChartBuffer</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>AxisNetHeight</t>
+  </si>
+  <si>
+    <t>NumberOfLabels</t>
+  </si>
+  <si>
+    <t>PointsPerLabelStep</t>
+  </si>
+  <si>
+    <t>LabelSteps</t>
+  </si>
+  <si>
+    <t>PricePerLabelStep</t>
+  </si>
+  <si>
+    <t>RangePrice</t>
+  </si>
+  <si>
+    <t>MaxRangePrice</t>
+  </si>
+  <si>
+    <t>MinRangePrice</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
 </sst>
 </file>
 
@@ -606,7 +655,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +671,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -631,7 +695,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -639,11 +703,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -654,9 +777,49 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3536,9 +3699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E00779-A7A8-475A-ACFE-7A59F9649B0E}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4316,4 +4479,275 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4108A046-A224-4C38-B22F-2182BCD6D4B7}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <f>$B$4*(1-$E$3*2)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <f>$B$4*$E$3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <f>B7/E2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <f>B9-1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <f>B7/B12</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <f>$B$2-$B$3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <f>B16/B12</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="20">
+        <v>10</v>
+      </c>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13">
+        <v>36</v>
+      </c>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="23">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13">
+        <v>36</v>
+      </c>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="23">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13">
+        <v>36</v>
+      </c>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13">
+        <v>36</v>
+      </c>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13">
+        <v>36</v>
+      </c>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="16">
+        <v>10</v>
+      </c>
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="26">
+        <f>SUM(B21:B34)</f>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C22:C23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>